--- a/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample10-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample10-from-config-file.xlsx
@@ -25,16 +25,16 @@
     <t>From:</t>
   </si>
   <si>
-    <t>06/03/2019 18:55:25</t>
-  </si>
-  <si>
-    <t>18:55:25.4852682</t>
+    <t>07/03/2019 1:38:04</t>
+  </si>
+  <si>
+    <t>01:38:04.3460989</t>
   </si>
   <si>
     <t>To:</t>
   </si>
   <si>
-    <t>18:55:25.4863447</t>
+    <t>01:38:04.3470913</t>
   </si>
   <si>
     <t/>

--- a/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample10-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample10-from-config-file.xlsx
@@ -25,10 +25,10 @@
     <t>From:</t>
   </si>
   <si>
-    <t>07/03/2019 10:43:53</t>
-  </si>
-  <si>
-    <t>10:43:53.5269027</t>
+    <t>07/03/2019 23:21:23</t>
+  </si>
+  <si>
+    <t>23:21:23.4755778</t>
   </si>
   <si>
     <t>To:</t>

--- a/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample10-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample10-from-config-file.xlsx
@@ -25,10 +25,10 @@
     <t>From:</t>
   </si>
   <si>
-    <t>07/03/2019 23:21:23</t>
-  </si>
-  <si>
-    <t>23:21:23.4755778</t>
+    <t>08/03/2019 0:36:23</t>
+  </si>
+  <si>
+    <t>00:36:23.5393233</t>
   </si>
   <si>
     <t>To:</t>

--- a/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample10-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample10-from-config-file.xlsx
@@ -25,10 +25,10 @@
     <t>From:</t>
   </si>
   <si>
-    <t>08/03/2019 0:36:23</t>
-  </si>
-  <si>
-    <t>00:36:23.5393233</t>
+    <t>08/03/2019 1:03:38</t>
+  </si>
+  <si>
+    <t>01:03:38.7278421</t>
   </si>
   <si>
     <t>To:</t>

--- a/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample10-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample10-from-config-file.xlsx
@@ -25,10 +25,10 @@
     <t>From:</t>
   </si>
   <si>
-    <t>12/09/2019 10:44:00</t>
-  </si>
-  <si>
-    <t>10:44:00.6838506</t>
+    <t>21/10/2020 17:10:25</t>
+  </si>
+  <si>
+    <t>17:10:25.3493492</t>
   </si>
   <si>
     <t>To:</t>
